--- a/genshin/434837152066119228_2020-09-14_19-10-14.xlsx
+++ b/genshin/434837152066119228_2020-09-14_19-10-14.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:40:09</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11121527778</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-15 22:38:18</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44119.94326388889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>3576937876</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-08 09:34:42</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44112.39909722222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>3576937876</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-08 09:16:11</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44112.38623842593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>3576937876</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-08 08:35:06</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44112.35770833334</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -886,10 +892,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:16:00</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44104.80277777778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -953,10 +957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-20 11:11:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44094.46653935185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1028,10 +1030,8 @@
           <t>3510508183</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-20 01:11:51</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44094.04989583333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1099,10 +1099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-17 23:09:25</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44091.96487268519</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1174,10 +1172,8 @@
           <t>3501152103</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:03:18</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44091.585625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:16:43</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44091.34494212963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1328,10 +1322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:57:40</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44090.74837962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1395,10 +1387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:37:05</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44090.69241898148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1462,10 +1452,8 @@
           <t>3497447113</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-16 11:58:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44090.49865740741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1541,10 +1529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-16 11:08:38</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44090.4643287037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1612,10 +1598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-16 03:26:29</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44090.1433912037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1691,10 +1675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:26:35</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44089.89346064815</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1758,10 +1740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:20:20</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44089.88912037037</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1825,10 +1805,8 @@
           <t>3495806642</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:17:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44089.88684027778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1892,10 +1870,8 @@
           <t>3495799583</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:16:30</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44089.88645833333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1959,10 +1935,8 @@
           <t>3495805764</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:16:21</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44089.88635416667</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2026,10 +2000,8 @@
           <t>3492720123</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-15 20:46:31</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44089.86563657408</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2097,10 +2069,8 @@
           <t>3492756028</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-15 20:46:27</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44089.86559027778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2168,10 +2138,8 @@
           <t>3492725702</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-15 20:46:25</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44089.86556712963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2239,10 +2207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-15 19:33:49</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44089.81515046296</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2315,10 +2281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-15 17:57:49</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44089.7484837963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2386,10 +2350,8 @@
           <t>3493897821</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-15 17:31:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44089.7303125</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2457,10 +2419,8 @@
           <t>3493897821</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-15 17:30:30</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44089.72951388889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2528,10 +2488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-15 16:42:58</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44089.69650462963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2591,10 +2549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-15 15:14:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44089.63494212963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2662,10 +2618,8 @@
           <t>3494667927</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-15 15:06:20</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44089.62939814815</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2741,10 +2695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-15 15:02:45</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44089.62690972222</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2812,10 +2764,8 @@
           <t>3493897821</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-15 14:59:42</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44089.62479166667</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2891,10 +2841,8 @@
           <t>3494550456</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-15 14:08:28</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44089.58921296296</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -2970,10 +2918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-15 13:39:45</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44089.56927083333</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3049,10 +2995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-15 13:28:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44089.56125</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3120,10 +3064,8 @@
           <t>3493817381</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-15 12:52:25</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44089.53640046297</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3199,10 +3141,8 @@
           <t>3494240197</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-15 12:22:07</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44089.5153587963</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3266,10 +3206,8 @@
           <t>3493817381</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-15 12:10:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44089.50711805555</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3337,10 +3275,8 @@
           <t>3493895337</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-15 11:12:14</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44089.46682870371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3412,10 +3348,8 @@
           <t>3493817381</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-15 11:06:38</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44089.46293981482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3491,10 +3425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:46:44</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44089.44912037037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3566,10 +3498,8 @@
           <t>3493882964</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:30:28</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44089.43782407408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3645,10 +3575,8 @@
           <t>3493882964</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:28:43</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44089.4366087963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3724,10 +3652,8 @@
           <t>3493864172</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:15:54</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44089.42770833334</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3795,10 +3721,8 @@
           <t>3493864172</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:15:33</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44089.42746527777</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3866,10 +3790,8 @@
           <t>3493864172</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:14:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44089.42704861111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3937,10 +3859,8 @@
           <t>3493817381</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:14:03</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44089.42642361111</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4008,10 +3928,8 @@
           <t>3493881188</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:13:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44089.42616898148</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4079,10 +3997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:03:20</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44089.41898148148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4150,10 +4066,8 @@
           <t>3493908476</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:02:20</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44089.41828703704</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4217,10 +4131,8 @@
           <t>3493908476</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:01:32</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44089.41773148148</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4284,10 +4196,8 @@
           <t>3493912538</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:01:26</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44089.41766203703</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4351,10 +4261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:01:04</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44089.41740740741</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4422,10 +4330,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:01:01</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44089.41737268519</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4489,10 +4395,8 @@
           <t>3493882964</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:00:24</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44089.41694444444</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4568,10 +4472,8 @@
           <t>3493908476</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-15 10:00:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44089.41666666666</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4635,10 +4537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:59:07</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44089.41605324074</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4706,10 +4606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:58:28</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44089.41560185186</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4781,10 +4679,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:57:06</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44089.41465277778</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4848,10 +4744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:56:05</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44089.41394675926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4927,10 +4821,8 @@
           <t>3493621174</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:55:21</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44089.4134375</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4999,10 +4891,8 @@
           <t>3493897821</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:54:25</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44089.41278935185</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5070,10 +4960,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:54:25</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44089.41278935185</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5141,10 +5029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:53:28</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44089.41212962963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5216,10 +5102,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:52:25</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44089.41140046297</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5283,10 +5167,8 @@
           <t>3493895337</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:51:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44089.41100694444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5362,10 +5244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:51:19</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44089.41063657407</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5437,10 +5317,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:51:17</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44089.41061342593</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5504,10 +5382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:51:11</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44089.41054398148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5579,10 +5455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:50:48</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44089.41027777778</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5658,10 +5532,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:50:44</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44089.41023148148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5725,10 +5597,8 @@
           <t>3493895337</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:50:40</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44089.41018518519</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5800,10 +5670,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:50:09</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44089.40982638889</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5871,10 +5739,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:49:58</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44089.40969907407</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5938,10 +5804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:48:09</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44089.4084375</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -6013,10 +5877,8 @@
           <t>3493881188</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:47</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44089.40818287037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6084,10 +5946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44089.40806712963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6155,10 +6015,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44089.40792824074</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6222,10 +6080,8 @@
           <t>3493857890</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:22</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44089.40789351852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6293,10 +6149,8 @@
           <t>3493879491</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:22</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44089.40789351852</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6372,10 +6226,8 @@
           <t>3493881188</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:18</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44089.40784722222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6451,10 +6303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:12</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44089.40777777778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6518,10 +6368,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:07</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44089.40771990741</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6585,10 +6433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:06</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44089.40770833333</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6652,10 +6498,8 @@
           <t>3493882964</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:46:44</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44089.4074537037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6731,10 +6575,8 @@
           <t>3493879491</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:46:34</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44089.40733796296</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6810,10 +6652,8 @@
           <t>3493881188</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:46:25</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44089.40723379629</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6881,10 +6721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:46:06</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44089.40701388889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6948,10 +6786,8 @@
           <t>3493879491</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:45:58</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44089.40692129629</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7027,10 +6863,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:45:42</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44089.40673611111</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7094,10 +6928,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:45:37</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44089.40667824074</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7165,10 +6997,8 @@
           <t>3493885384</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:45:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44089.40660879629</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7244,10 +7074,8 @@
           <t>3493877570</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:45:03</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44089.40628472222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7311,10 +7139,8 @@
           <t>3493881188</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:44:57</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44089.40621527778</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7390,10 +7216,8 @@
           <t>3493875249</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:44:48</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44089.40611111111</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7457,10 +7281,8 @@
           <t>3493864172</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:44:38</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44089.40599537037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7536,10 +7358,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:43:53</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44089.40547453704</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7603,10 +7423,8 @@
           <t>3493881188</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:43:47</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44089.40540509259</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7674,10 +7492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:43:33</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44089.40524305555</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7745,10 +7561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:42:58</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44089.40483796296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7824,10 +7638,8 @@
           <t>3493877570</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:42:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44089.4046875</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7891,10 +7703,8 @@
           <t>3493873643</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:42:28</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44089.40449074074</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -7958,10 +7768,8 @@
           <t>3493875249</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:42:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44089.40427083334</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8029,10 +7837,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:41:56</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44089.40412037037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8096,10 +7902,8 @@
           <t>3493869620</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:41:08</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44089.40356481481</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8167,10 +7971,8 @@
           <t>3493872702</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:40:53</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44089.4033912037</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8234,10 +8036,8 @@
           <t>3493872607</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:40:43</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44089.40327546297</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8305,10 +8105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:40:19</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44089.40299768518</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8384,10 +8182,8 @@
           <t>3493875249</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:38:46</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44089.4019212963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8451,10 +8247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:38:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44089.40172453703</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8530,10 +8324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:38:18</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44089.40159722222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8597,10 +8389,8 @@
           <t>3493861483</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:38:18</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44089.40159722222</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8668,10 +8458,8 @@
           <t>3493857890</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:38:14</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44089.40155092593</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8739,10 +8527,8 @@
           <t>3493857890</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:37:23</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44089.40096064815</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8806,10 +8592,8 @@
           <t>3493864172</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:37:02</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44089.40071759259</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8877,10 +8661,8 @@
           <t>3493866338</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:35:46</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44089.39983796296</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8956,10 +8738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:35:38</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44089.39974537037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9027,10 +8807,8 @@
           <t>3493863202</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:35:26</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44089.39960648148</v>
       </c>
       <c r="I120" t="n">
         <v>8</v>
@@ -9102,10 +8880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:34:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44089.39878472222</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9173,10 +8949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:32:57</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44089.39788194445</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9244,10 +9018,8 @@
           <t>3493857890</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:32:34</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44089.39761574074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9315,10 +9087,8 @@
           <t>3493861483</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:32:34</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44089.39761574074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9394,10 +9164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:32:03</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44089.39725694444</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9465,10 +9233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:31:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44089.3966087963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9536,10 +9302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:30:41</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44089.39630787037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9615,10 +9379,8 @@
           <t>3493853004</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:30:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44089.39596064815</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9686,10 +9448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:29:43</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44089.39563657407</v>
       </c>
       <c r="I129" t="n">
         <v>6</v>
@@ -9753,10 +9513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:29:19</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44089.3953587963</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9820,10 +9578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:28:58</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44089.39511574074</v>
       </c>
       <c r="I131" t="n">
         <v>5</v>
@@ -9887,10 +9643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:28:51</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44089.39503472222</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9962,10 +9716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:28:17</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44089.3946412037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10037,10 +9789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:27:35</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44089.3941550926</v>
       </c>
       <c r="I134" t="n">
         <v>7</v>
@@ -10108,10 +9858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:27:34</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44089.39414351852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10179,10 +9927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:26:45</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44089.39357638889</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10254,10 +10000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:26:25</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44089.39334490741</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10333,10 +10077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:24:49</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44089.39223379629</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10400,10 +10142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:22:04</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44089.39032407408</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10475,10 +10215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:20:40</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44089.38935185185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10554,10 +10292,8 @@
           <t>3493833462</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:19:20</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44089.38842592593</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10625,10 +10361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:17:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44089.3870949074</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10704,10 +10438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:16:38</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44089.38655092593</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10779,10 +10511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:16:01</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44089.38612268519</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10854,10 +10584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:14:36</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44089.38513888889</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10925,10 +10653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:13:50</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44089.38460648148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10996,10 +10722,8 @@
           <t>3493820341</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:13:27</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44089.38434027778</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11075,10 +10799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:11:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44089.38324074074</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11150,10 +10872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:10:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44089.38261574074</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11225,10 +10945,8 @@
           <t>3493820341</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:09:57</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44089.38190972222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11304,10 +11022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:09:37</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44089.38167824074</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11375,10 +11091,8 @@
           <t>3493820341</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:09:20</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44089.38148148148</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11442,10 +11156,8 @@
           <t>3493814358</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:09:10</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44089.38136574074</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11509,10 +11221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:08:40</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44089.38101851852</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11588,10 +11298,8 @@
           <t>3493817381</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:08:31</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44089.38091435185</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11667,10 +11375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:07:44</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44089.38037037037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11742,10 +11448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:04:28</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44089.37810185185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11823,10 +11527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:04:26</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44089.3780787037</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11894,10 +11596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:01:24</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44089.37597222222</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11965,10 +11665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:49:09</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44089.36746527778</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12036,10 +11734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:35:04</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44089.35768518518</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12115,10 +11811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:32:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44089.35597222222</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12186,10 +11880,8 @@
           <t>3493744547</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:29:16</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44089.35365740741</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12265,10 +11957,8 @@
           <t>3493744547</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:28:36</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44089.35319444445</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12340,10 +12030,8 @@
           <t>3493730809</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:15:23</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44089.3440162037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12411,10 +12099,8 @@
           <t>3493708469</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:00:57</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44089.33399305555</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12492,10 +12178,8 @@
           <t>3493702871</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:58:52</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44089.3325462963</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12567,10 +12251,8 @@
           <t>3493701223</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:55:15</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44089.33003472222</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12646,10 +12328,8 @@
           <t>3493260356</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:48:32</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44089.32537037037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12717,10 +12397,8 @@
           <t>3493087861</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:37:28</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44089.31768518518</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12796,10 +12474,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:32:00</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44089.31388888889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12867,10 +12543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:07:31</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44089.29688657408</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -12946,10 +12620,8 @@
           <t>3493634247</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:03:58</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44089.2944212963</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13017,10 +12689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:03:48</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44089.29430555556</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13088,10 +12758,8 @@
           <t>3493621174</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-15 06:39:37</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44089.27751157407</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13159,10 +12827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-15 06:06:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44089.25445601852</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -13222,10 +12888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-15 05:53:02</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44089.24516203703</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13293,10 +12957,8 @@
           <t>3493582907</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-15 05:40:19</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44089.23633101852</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13364,10 +13026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-15 04:51:22</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44089.20233796296</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13443,10 +13103,8 @@
           <t>3493509486</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-15 02:51:00</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44089.11875</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13518,10 +13176,8 @@
           <t>3493422364</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-15 02:12:22</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44089.0919212963</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13585,10 +13241,8 @@
           <t>3493260356</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-15 02:09:10</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44089.08969907407</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13660,10 +13314,8 @@
           <t>3493459641</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:57:59</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44089.08193287037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13731,10 +13383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:54:32</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44089.07953703704</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13806,10 +13456,8 @@
           <t>3493438086</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:35:27</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44089.06628472222</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13886,10 +13534,8 @@
           <t>3493423602</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:26:07</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44089.05980324074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13966,10 +13612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:24:36</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44089.05875</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14033,10 +13677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:24:17</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44089.0585300926</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14100,10 +13742,8 @@
           <t>3493422364</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:23:47</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44089.05818287037</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14167,10 +13807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:20:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44089.05571759259</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14239,10 +13877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:09:03</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44089.04795138889</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14311,10 +13947,8 @@
           <t>3493347452</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:44:48</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44089.03111111111</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14390,10 +14024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:41:28</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44089.0287962963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14457,10 +14089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:33:50</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44089.02349537037</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14536,10 +14166,8 @@
           <t>3493321450</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:31:42</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44089.02201388889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14607,10 +14235,8 @@
           <t>3493312095</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:31:22</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44089.02178240741</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14686,10 +14312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:29:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44089.02019675926</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14757,10 +14381,8 @@
           <t>3493298334</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:27:16</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44089.01893518519</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14828,10 +14450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:22:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44089.01565972222</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14899,10 +14519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:15:08</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44089.01050925926</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14978,10 +14596,8 @@
           <t>3492803315</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:13:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44089.00951388889</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15057,10 +14673,8 @@
           <t>3493260356</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:09:50</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44089.00682870371</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15128,10 +14742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:08:05</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44089.00561342593</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15199,10 +14811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:07:39</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44089.0053125</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15267,10 +14877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:06:03</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44089.00420138889</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15338,10 +14946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:04:18</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44089.00298611111</v>
       </c>
       <c r="I206" t="n">
         <v>5</v>
@@ -15405,10 +15011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:01:50</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44089.00127314815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15480,10 +15084,8 @@
           <t>3492953146</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:00:56</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44089.00064814815</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15543,10 +15145,8 @@
           <t>3493209428</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:58:52</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44088.99921296296</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15622,10 +15222,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:53:28</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44088.99546296296</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15693,10 +15291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:48:42</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44088.99215277778</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15760,10 +15356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:45:51</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44088.99017361111</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15831,10 +15425,8 @@
           <t>3493153886</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:42:15</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44088.98767361111</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15910,10 +15502,8 @@
           <t>3493153153</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:41:38</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44088.98724537037</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15985,10 +15575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:40:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44088.98628472222</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16056,10 +15644,8 @@
           <t>3492248143</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:38:42</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44088.98520833333</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16135,10 +15721,8 @@
           <t>3493131575</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:35:43</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44088.98313657408</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16206,10 +15790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:33:11</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44088.98137731481</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16273,10 +15855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:32:59</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44088.98123842593</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16348,10 +15928,8 @@
           <t>3492248143</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:30:00</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44088.97916666666</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16423,10 +16001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:25:13</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44088.97584490741</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16498,10 +16074,8 @@
           <t>3493092198</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:25:07</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44088.97577546296</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16577,10 +16151,8 @@
           <t>3493087861</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:24:46</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44088.97553240741</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16652,10 +16224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:22:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44088.97422453704</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16731,10 +16301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:20:34</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44088.97261574074</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16810,10 +16378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:18:00</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44088.97083333333</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16889,10 +16455,8 @@
           <t>3493066197</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:17:07</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44088.97021990741</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16968,10 +16532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:16:39</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44088.96989583333</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17047,10 +16609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:14:31</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44088.96841435185</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17118,10 +16678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:11:25</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44088.96626157407</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17193,10 +16751,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:10:02</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44088.96530092593</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17268,10 +16824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:07:59</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44088.96387731482</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17339,10 +16893,8 @@
           <t>3493006485</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:02:30</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44088.96006944445</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17410,10 +16962,8 @@
           <t>3492953146</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:50:59</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44088.95207175926</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17489,10 +17039,8 @@
           <t>3492949886</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:50:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44088.95185185185</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
@@ -17556,10 +17104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:49:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44088.95113425926</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17627,10 +17173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:46:27</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44088.94892361111</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17694,10 +17238,8 @@
           <t>3492915678</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:40:38</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44088.94488425926</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17769,10 +17311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:39:48</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44088.94430555555</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17844,10 +17384,8 @@
           <t>3492902307</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:38:18</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44088.94326388889</v>
       </c>
       <c r="I240" t="n">
         <v>4</v>
@@ -17915,10 +17453,8 @@
           <t>3492895111</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:36:09</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44088.94177083333</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17994,10 +17530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:27:40</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44088.93587962963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18065,10 +17599,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:22:53</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44088.93255787037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18132,10 +17664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:21:25</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44088.93153935186</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18199,10 +17729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:21:22</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44088.93150462963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18270,10 +17798,8 @@
           <t>3492824365</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:21:06</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44088.93131944445</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18349,10 +17875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:20:24</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44088.93083333333</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18424,10 +17948,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:19:44</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44088.93037037037</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18503,10 +18025,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:19:27</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44088.93017361111</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18582,10 +18102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:17:56</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44088.92912037037</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18662,10 +18180,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:17:26</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44088.92877314815</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18734,10 +18250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:17:16</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44088.92865740741</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18805,10 +18319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:17:06</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44088.92854166667</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18872,10 +18384,8 @@
           <t>3492803315</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:14:27</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44088.92670138889</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18947,10 +18457,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:13:47</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44088.92623842593</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19022,10 +18530,8 @@
           <t>3492796446</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:12:47</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44088.92554398148</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19097,10 +18603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:12:42</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44088.92548611111</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19168,10 +18672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:12:07</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44088.92508101852</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19239,10 +18741,8 @@
           <t>3492778248</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:09:09</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44088.92302083333</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19318,10 +18818,8 @@
           <t>3492756028</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:02:07</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44088.91813657407</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19397,10 +18895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:00:05</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44088.91672453703</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19468,10 +18964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:57:25</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44088.91487268519</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19543,10 +19037,8 @@
           <t>3492727474</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:55:41</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44088.91366898148</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19610,10 +19102,8 @@
           <t>3492380799</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:54:29</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44088.91283564815</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19681,10 +19171,8 @@
           <t>3492725702</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:54:19</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44088.91271990741</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19756,10 +19244,8 @@
           <t>3492720123</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:52:24</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44088.91138888889</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19831,10 +19317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:50:27</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44088.91003472222</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19902,10 +19386,8 @@
           <t>3492592083</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:50:11</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44088.90984953703</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19969,10 +19451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:50:05</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44088.9097800926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20036,10 +19516,8 @@
           <t>3492592083</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:46:51</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44088.90753472222</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20107,10 +19585,8 @@
           <t>3492687928</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:45:58</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44088.90692129629</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20178,10 +19654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:45:41</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44088.90672453704</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20249,10 +19723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:45:07</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44088.90633101852</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20316,10 +19788,8 @@
           <t>3492682896</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:44:35</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44088.90596064815</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20395,10 +19865,8 @@
           <t>3492380799</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:44:25</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44088.90584490741</v>
       </c>
       <c r="I275" t="n">
         <v>9</v>
@@ -20470,10 +19938,8 @@
           <t>3492679692</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:44:09</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44088.90565972222</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20537,10 +20003,8 @@
           <t>3492680830</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:43:02</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44088.90488425926</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20604,10 +20068,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:41:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44088.90388888889</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20671,10 +20133,8 @@
           <t>3492671300</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:40:47</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44088.90332175926</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20742,10 +20202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:35:04</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44088.89935185185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20817,10 +20275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:31:55</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44088.89716435185</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20892,10 +20348,8 @@
           <t>3492584462</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:30:48</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44088.89638888889</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20959,10 +20413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:30:02</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44088.89585648148</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21038,10 +20490,8 @@
           <t>3492599358</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:23:09</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44088.89107638889</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21116,10 +20566,8 @@
           <t>3492157517</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:23:07</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44088.89105324074</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21187,10 +20635,8 @@
           <t>3492584462</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:22:35</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44088.89068287037</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21263,10 +20709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:22:23</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44088.89054398148</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21326,10 +20770,8 @@
           <t>3492592083</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:20:31</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44088.88924768518</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21393,10 +20835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:20:01</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44088.88890046296</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21460,10 +20900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:19:13</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44088.88834490741</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21531,10 +20969,8 @@
           <t>3492584462</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:19:13</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44088.88834490741</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21598,10 +21034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:13:35</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44088.88443287037</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21677,10 +21111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:13:32</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44088.88439814815</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21748,10 +21180,8 @@
           <t>3492561427</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:12:09</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44088.8834375</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21819,10 +21249,8 @@
           <t>3492554306</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:11:00</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44088.88263888889</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21894,10 +21322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:10:39</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44088.88239583333</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21974,10 +21400,8 @@
           <t>3492556732</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:09:27</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44088.8815625</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22053,10 +21477,8 @@
           <t>3492547519</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:09:00</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44088.88125</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22124,10 +21546,8 @@
           <t>3492539769</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:07:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44088.87997685185</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22195,10 +21615,8 @@
           <t>3492534738</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:06:47</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44088.87971064815</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22266,10 +21684,8 @@
           <t>3492534227</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:06:24</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44088.87944444444</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22337,10 +21753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:04:28</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44088.87810185185</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22400,10 +21814,8 @@
           <t>3492327420</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:03:49</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44088.87765046296</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22471,10 +21883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:02:53</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44088.87700231482</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22538,10 +21948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:02:05</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44088.87644675926</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22613,10 +22021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:02:05</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44088.87644675926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22680,10 +22086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:01:16</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44088.87587962963</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22747,10 +22151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:01:05</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44088.87575231482</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22826,10 +22228,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:00:26</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44088.87530092592</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22889,10 +22289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:00:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44088.87528935185</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22968,10 +22366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:59:28</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44088.87462962963</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23035,10 +22431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:57:56</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44088.87356481481</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23106,10 +22500,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:57:51</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44088.87350694444</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23185,10 +22577,8 @@
           <t>3492380799</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:56:31</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44088.87258101852</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23260,10 +22650,8 @@
           <t>3492501414</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:56:07</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44088.87230324074</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -23339,10 +22727,8 @@
           <t>3492501050</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:55:50</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44088.87210648148</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23418,10 +22804,8 @@
           <t>3492499780</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:55:23</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44088.87179398148</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23497,10 +22881,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:54:26</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44088.87113425926</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23576,10 +22958,8 @@
           <t>3492446344</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:53:37</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44088.87056712963</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23643,10 +23023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:52:30</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44088.86979166666</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23710,10 +23088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:51:57</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44088.86940972223</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23785,10 +23161,8 @@
           <t>3492485576</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:51:13</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44088.86890046296</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23848,10 +23222,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:49:52</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44088.86796296296</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -23927,10 +23299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:47:41</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44088.86644675926</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24002,10 +23372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:46:50</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44088.86585648148</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24069,10 +23437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:46:14</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44088.86543981481</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24140,10 +23506,8 @@
           <t>3492468841</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:46:10</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44088.86539351852</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24219,10 +23583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:45:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44088.86474537037</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24290,10 +23652,8 @@
           <t>3492466201</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:43:57</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44088.86385416667</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24361,10 +23721,8 @@
           <t>3492423700</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:40:56</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44088.86175925926</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24432,10 +23790,8 @@
           <t>3492448134</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:40:50</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44088.86168981482</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24511,10 +23867,8 @@
           <t>3492149681</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:39:46</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44088.86094907407</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24586,10 +23940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:39:41</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44088.8608912037</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24657,10 +24009,8 @@
           <t>3492446676</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:39:35</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44088.86082175926</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24724,10 +24074,8 @@
           <t>3492446344</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:39:19</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44088.86063657407</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24791,10 +24139,8 @@
           <t>3492327420</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:39:17</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44088.86061342592</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24858,10 +24204,8 @@
           <t>3492439289</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:38:03</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44088.85975694445</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24925,10 +24269,8 @@
           <t>3492423700</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:36:13</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44088.8584837963</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25000,10 +24342,8 @@
           <t>3492427342</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:36:00</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44088.85833333333</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25075,10 +24415,8 @@
           <t>3492427249</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:35:56</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44088.85828703704</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25154,10 +24492,8 @@
           <t>3492427180</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:35:52</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44088.85824074074</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25225,10 +24561,8 @@
           <t>3492426954</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:35:40</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44088.85810185185</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25304,10 +24638,8 @@
           <t>3492436185</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:35:29</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44088.85797453704</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25375,10 +24707,8 @@
           <t>3492435541</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:34:56</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44088.85759259259</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25442,10 +24772,8 @@
           <t>3492423700</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:34:55</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44088.85758101852</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25513,10 +24841,8 @@
           <t>3492425527</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:34:25</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44088.8572337963</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25584,10 +24910,8 @@
           <t>3492423700</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:33:19</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44088.8564699074</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25659,10 +24983,8 @@
           <t>3492418582</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:32:53</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44088.85616898148</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25730,10 +25052,8 @@
           <t>3492412679</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:31:59</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44088.85554398148</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25809,10 +25129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:31:29</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44088.85519675926</v>
       </c>
       <c r="I350" t="n">
         <v>13</v>
@@ -25888,10 +25206,8 @@
           <t>3492411102</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:30:38</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44088.85460648148</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25960,10 +25276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:30:10</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44088.85428240741</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26031,10 +25345,8 @@
           <t>3492266708</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:28:56</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44088.85342592592</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26106,10 +25418,8 @@
           <t>3492401254</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:26:44</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44088.85189814815</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26177,10 +25487,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:25:35</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44088.85109953704</v>
       </c>
       <c r="I355" t="n">
         <v>6</v>
@@ -26244,10 +25552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:25:08</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44088.85078703704</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26319,10 +25625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:24:39</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44088.85045138889</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26398,10 +25702,8 @@
           <t>3492383771</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:24:20</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44088.85023148148</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26469,10 +25771,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:23:31</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44088.84966435185</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26544,10 +25844,8 @@
           <t>3492392181</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:23:27</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44088.84961805555</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26619,10 +25917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:23:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44088.84939814815</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26690,10 +25986,8 @@
           <t>3492386606</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:22:53</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44088.84922453704</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26757,10 +26051,8 @@
           <t>3492390965</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:22:24</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44088.84888888889</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26828,10 +26120,8 @@
           <t>3492390912</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:22:22</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44088.84886574074</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26907,10 +26197,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:21:53</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44088.84853009259</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -26986,10 +26274,8 @@
           <t>3492380799</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:21:49</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44088.8484837963</v>
       </c>
       <c r="I366" t="n">
         <v>6</v>
@@ -27061,10 +26347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:21:37</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44088.8483449074</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27137,10 +26421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:20:42</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44088.84770833333</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27212,10 +26494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:19:30</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44088.846875</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27283,10 +26563,8 @@
           <t>3492377458</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:19:28</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44088.84685185185</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27362,10 +26640,8 @@
           <t>3492367268</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:18:48</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44088.84638888889</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27437,10 +26713,8 @@
           <t>3492371582</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:18:39</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44088.84628472223</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27504,10 +26778,8 @@
           <t>3492376302</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:18:30</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44088.84618055556</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27575,10 +26847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:18:11</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44088.84596064815</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27642,10 +26912,8 @@
           <t>3492375788</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:18:03</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44088.84586805556</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27713,10 +26981,8 @@
           <t>3492364832</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:17:09</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44088.84524305556</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27784,10 +27050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:16:51</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44088.84503472222</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27860,10 +27124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:16:45</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44088.84496527778</v>
       </c>
       <c r="I378" t="n">
         <v>8</v>
@@ -27931,10 +27193,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:16:38</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44088.84488425926</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28002,10 +27262,8 @@
           <t>3492266708</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:16:06</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44088.84451388889</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28069,10 +27327,8 @@
           <t>3492354032</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:16:03</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44088.84447916667</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28136,10 +27392,8 @@
           <t>3492353200</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:15:19</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44088.84396990741</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28215,10 +27469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:14:41</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44088.84353009259</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28286,10 +27538,8 @@
           <t>3492356779</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:14:36</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44088.84347222222</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28357,10 +27607,8 @@
           <t>3492356019</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:13:58</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44088.84303240741</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28432,10 +27680,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:12:26</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44088.84196759259</v>
       </c>
       <c r="I386" t="n">
         <v>8</v>
@@ -28513,10 +27759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:11:53</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44088.84158564815</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28592,10 +27836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:10:32</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44088.84064814815</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28671,10 +27913,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:10:08</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44088.84037037037</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28746,10 +27986,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:09:49</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44088.84015046297</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28825,10 +28063,8 @@
           <t>3492334941</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:08:59</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44088.83957175926</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28888,10 +28124,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:08:58</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44088.83956018519</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28963,10 +28197,8 @@
           <t>3492327420</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:06:34</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44088.83789351852</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29034,10 +28266,8 @@
           <t>3492322099</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:05:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44088.83743055556</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29101,10 +28331,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:05:42</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44088.83729166666</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29172,10 +28400,8 @@
           <t>3492320877</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:04:51</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44088.83670138889</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29243,10 +28469,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:04:31</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44088.83646990741</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29318,10 +28542,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:04:12</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44088.83625</v>
       </c>
       <c r="I398" t="n">
         <v>17</v>
@@ -29385,10 +28607,8 @@
           <t>3492319112</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:04:09</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44088.83621527778</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29464,10 +28684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:04:04</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44088.83615740741</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29543,10 +28761,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:03:54</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44088.83604166667</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29618,10 +28834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:03:43</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44088.83591435185</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29693,10 +28907,8 @@
           <t>3492313329</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:03:08</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44088.83550925926</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29768,10 +28980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:01:46</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44088.83456018518</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29839,10 +29049,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:01:12</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44088.83416666667</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29906,10 +29114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:00:57</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44088.83399305555</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -29973,10 +29179,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:59:39</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44088.83309027777</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30044,10 +29248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:59:35</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44088.83304398148</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30116,10 +29318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:58:58</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44088.83261574074</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30191,10 +29391,8 @@
           <t>3492287316</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:54:24</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44088.82944444445</v>
       </c>
       <c r="I410" t="n">
         <v>3</v>
@@ -30262,10 +29460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:53:17</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44088.82866898148</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30329,10 +29525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:53:13</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44088.82862268519</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30400,10 +29594,8 @@
           <t>3492281318</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:53:01</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44088.82848379629</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30475,10 +29667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:52:57</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44088.8284375</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30546,10 +29736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:52:42</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44088.82826388889</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30623,10 +29811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:52:35</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44088.82818287037</v>
       </c>
       <c r="I416" t="n">
         <v>11</v>
@@ -30699,10 +29885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:52:09</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44088.82788194445</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30766,10 +29950,8 @@
           <t>3492269613</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:51:34</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44088.82747685185</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30845,10 +30027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:51:26</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44088.82738425926</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -30912,10 +30092,8 @@
           <t>3492264107</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:50:57</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44088.82704861111</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30979,10 +30157,8 @@
           <t>3492266708</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:49:07</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44088.82577546296</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31054,10 +30230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:51</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44088.82559027777</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31129,10 +30303,8 @@
           <t>3492261546</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:49</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44088.82556712963</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31204,10 +30376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:46</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44088.82553240741</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31271,10 +30441,8 @@
           <t>3492266198</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:40</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44088.82546296297</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31350,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:33</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44088.82538194444</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31429,10 +30595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:10</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44088.82511574074</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31496,10 +30660,8 @@
           <t>3492248807</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:48:07</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44088.82508101852</v>
       </c>
       <c r="I428" t="n">
         <v>8</v>
@@ -31571,10 +30733,8 @@
           <t>3492259565</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:47:56</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44088.8249537037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31650,10 +30810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:47:52</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44088.8249074074</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31725,10 +30883,8 @@
           <t>3492169371</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:47:50</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44088.82488425926</v>
       </c>
       <c r="I431" t="n">
         <v>20</v>
@@ -31804,10 +30960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:47:32</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44088.82467592593</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31871,10 +31025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:47:32</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44088.82467592593</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31938,10 +31090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:46:54</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44088.82423611111</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32009,10 +31159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:46:54</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44088.82423611111</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32088,10 +31236,8 @@
           <t>3492253827</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:46:36</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44088.82402777778</v>
       </c>
       <c r="I436" t="n">
         <v>6</v>
@@ -32168,10 +31314,8 @@
           <t>3492248807</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:46:27</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44088.82392361111</v>
       </c>
       <c r="I437" t="n">
         <v>90</v>
@@ -32235,10 +31379,8 @@
           <t>3492248143</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:45:52</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44088.82351851852</v>
       </c>
       <c r="I438" t="n">
         <v>6</v>
@@ -32314,10 +31456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:44:39</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44088.82267361111</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32385,10 +31525,8 @@
           <t>3492246068</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:44:06</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44088.82229166666</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32464,10 +31602,8 @@
           <t>3492250663</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:43:53</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44088.8221412037</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32527,10 +31663,8 @@
           <t>3492200584</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:43:51</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44088.82211805556</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32602,10 +31736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:43:42</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44088.82201388889</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32681,10 +31813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:43:37</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44088.82195601852</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32756,10 +31886,8 @@
           <t>3492243880</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:42:59</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44088.8215162037</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32823,10 +31951,8 @@
           <t>3492243831</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:42:57</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44088.82149305556</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32894,10 +32020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:41:59</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44088.82082175926</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32968,10 +32092,8 @@
           <t>3492238449</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:41:54</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44088.82076388889</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33047,10 +32169,8 @@
           <t>3492242515</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:41:49</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44088.82070601852</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33126,10 +32246,8 @@
           <t>3492157517</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:41:45</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44088.82065972222</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33205,10 +32323,8 @@
           <t>3492233256</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:41:38</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44088.8205787037</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33276,10 +32392,8 @@
           <t>3492238052</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:41:31</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44088.82049768518</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33355,10 +32469,8 @@
           <t>3492237401</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:58</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44088.82011574074</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33434,10 +32546,8 @@
           <t>3492232250</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:46</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44088.81997685185</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33513,10 +32623,8 @@
           <t>3492232125</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:40</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44088.81990740741</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33592,10 +32700,8 @@
           <t>3492232069</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:37</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44088.81987268518</v>
       </c>
       <c r="I456" t="n">
         <v>4</v>
@@ -33655,10 +32761,8 @@
           <t>3492240695</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:17</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44088.81964120371</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33734,10 +32838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:00</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44088.81944444445</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33802,10 +32904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:39:57</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44088.81940972222</v>
       </c>
       <c r="I459" t="n">
         <v>18</v>
@@ -33881,10 +32981,8 @@
           <t>3492231283</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:39:57</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44088.81940972222</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33960,10 +33058,8 @@
           <t>3492229681</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:39:24</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44088.81902777778</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34031,10 +33127,8 @@
           <t>3492219789</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:38:42</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44088.81854166667</v>
       </c>
       <c r="I462" t="n">
         <v>2</v>
@@ -34106,10 +33200,8 @@
           <t>3492224247</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:38:13</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44088.81820601852</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34185,10 +33277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:38:11</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44088.81818287037</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34248,10 +33338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:37:57</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44088.81802083334</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34315,10 +33403,8 @@
           <t>3492227827</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:37:52</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44088.81796296296</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34395,10 +33481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:36:37</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44088.8170949074</v>
       </c>
       <c r="I467" t="n">
         <v>13</v>
@@ -34466,10 +33550,8 @@
           <t>3492226311</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:36:35</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44088.81707175926</v>
       </c>
       <c r="I468" t="n">
         <v>4</v>
@@ -34537,10 +33619,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:35:45</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44088.81649305556</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34608,10 +33688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:35:44</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44088.81648148148</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34679,10 +33757,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:35:07</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44088.81605324074</v>
       </c>
       <c r="I471" t="n">
         <v>6</v>
@@ -34754,10 +33830,8 @@
           <t>3492215176</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:34:48</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44088.81583333333</v>
       </c>
       <c r="I472" t="n">
         <v>21</v>
@@ -34829,10 +33903,8 @@
           <t>3492213994</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:34:43</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44088.81577546296</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34896,10 +33968,8 @@
           <t>3492204971</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:34:38</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44088.8157175926</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34971,10 +34041,8 @@
           <t>3492200584</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:34:33</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44088.81565972222</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35042,10 +34110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:34:26</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44088.8155787037</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35121,10 +34187,8 @@
           <t>3492209687</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:34:22</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44088.81553240741</v>
       </c>
       <c r="I477" t="n">
         <v>45</v>
@@ -35192,10 +34256,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:33:29</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44088.81491898148</v>
       </c>
       <c r="I478" t="n">
         <v>4</v>
@@ -35259,10 +34321,8 @@
           <t>3492208457</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:33:21</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44088.81482638889</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35334,10 +34394,8 @@
           <t>3492212301</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:33:18</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44088.81479166666</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35409,10 +34467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:33:15</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44088.81475694444</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35480,10 +34536,8 @@
           <t>3492203072</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:33:02</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44088.81460648148</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35551,10 +34605,8 @@
           <t>3492207941</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:56</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44088.81453703704</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35626,10 +34678,8 @@
           <t>3492202756</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:45</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44088.81440972222</v>
       </c>
       <c r="I484" t="n">
         <v>10</v>
@@ -35705,10 +34755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:38</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44088.8143287037</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35776,10 +34824,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:38</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44088.8143287037</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35843,10 +34889,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:37</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44088.81431712963</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35922,10 +34966,8 @@
           <t>3492211342</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:31</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44088.81424768519</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -35993,10 +35035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:32:10</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44088.81400462963</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36069,10 +35109,8 @@
           <t>3492157517</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:31:45</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44088.81371527778</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36140,10 +35178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:31:18</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44088.81340277778</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36211,10 +35247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:31:02</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44088.81321759259</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36286,10 +35320,8 @@
           <t>3492200766</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:31:00</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44088.81319444445</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36357,10 +35389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:30:53</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44088.81311342592</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36437,10 +35467,8 @@
           <t>3492200584</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:30:51</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44088.81309027778</v>
       </c>
       <c r="I495" t="n">
         <v>100</v>
@@ -36520,10 +35548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:30:38</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44088.81293981482</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36591,10 +35617,8 @@
           <t>3492198388</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:29:57</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44088.81246527778</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36670,10 +35694,8 @@
           <t>3492198330</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:29:55</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44088.81244212963</v>
       </c>
       <c r="I498" t="n">
         <v>2</v>
@@ -36741,10 +35763,8 @@
           <t>3492193967</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:29:33</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44088.8121875</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36808,10 +35828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:29:17</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44088.81200231481</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36884,10 +35902,8 @@
           <t>3492197265</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:29:02</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44088.81182870371</v>
       </c>
       <c r="I501" t="n">
         <v>78</v>
@@ -36953,10 +35969,8 @@
           <t>3492197081</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:28:54</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44088.81173611111</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37024,10 +36038,8 @@
           <t>3492196751</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:28:38</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44088.81155092592</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37095,10 +36107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:28:34</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44088.81150462963</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37170,10 +36180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:28:27</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44088.81142361111</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37245,10 +36253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:45</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44088.8109375</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37324,10 +36330,8 @@
           <t>3492186906</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:39</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44088.81086805555</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37399,10 +36403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:16</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44088.81060185185</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37478,10 +36480,8 @@
           <t>3492195106</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:14</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44088.81057870371</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37557,10 +36557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:10</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44088.81053240741</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37636,10 +36634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:00</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44088.81041666667</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37707,10 +36703,8 @@
           <t>3492186165</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:00</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44088.81041666667</v>
       </c>
       <c r="I512" t="n">
         <v>139</v>
@@ -37786,10 +36780,8 @@
           <t>3492185975</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:26:51</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44088.8103125</v>
       </c>
       <c r="I513" t="n">
         <v>2</v>
@@ -37865,10 +36857,8 @@
           <t>3492184551</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:26:47</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44088.81026620371</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37940,10 +36930,8 @@
           <t>3492179709</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:52</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44088.80962962963</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38019,10 +37007,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:50</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44088.80960648148</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -38094,10 +37080,8 @@
           <t>3492183429</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:50</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44088.80960648148</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38169,10 +37153,8 @@
           <t>3492174720</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:46</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44088.80956018518</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38248,10 +37230,8 @@
           <t>3492174669</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:43</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44088.80952546297</v>
       </c>
       <c r="I519" t="n">
         <v>6</v>
@@ -38315,10 +37295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:31</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44088.80938657407</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38382,10 +37360,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:25</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44088.80931712963</v>
       </c>
       <c r="I521" t="n">
         <v>7</v>
@@ -38461,10 +37437,8 @@
           <t>3492169371</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:23</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44088.80929398148</v>
       </c>
       <c r="I522" t="n">
         <v>35</v>
@@ -38536,10 +37510,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:25:15</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44088.80920138889</v>
       </c>
       <c r="I523" t="n">
         <v>17</v>
@@ -38607,10 +37579,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:24:49</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44088.80890046297</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38682,10 +37652,8 @@
           <t>3492177585</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:24:02</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44088.80835648148</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38753,10 +37721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:23:52</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44088.80824074074</v>
       </c>
       <c r="I526" t="n">
         <v>144</v>
@@ -38828,10 +37794,8 @@
           <t>3492149681</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:23:42</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44088.808125</v>
       </c>
       <c r="I527" t="n">
         <v>4</v>
@@ -38903,10 +37867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:23:17</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44088.80783564815</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38983,10 +37945,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:23:13</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44088.80778935185</v>
       </c>
       <c r="I529" t="n">
         <v>29</v>
@@ -39058,10 +38018,8 @@
           <t>3492171722</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:23:12</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44088.80777777778</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39137,10 +38095,8 @@
           <t>3492176078</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:46</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44088.80747685185</v>
       </c>
       <c r="I531" t="n">
         <v>43</v>
@@ -39208,10 +38164,8 @@
           <t>3492175847</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:35</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44088.80734953703</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39287,10 +38241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:34</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44088.80733796296</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39366,10 +38318,8 @@
           <t>3492169371</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:22</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44088.80719907407</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39445,10 +38395,8 @@
           <t>3492170764</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:21</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44088.8071875</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39520,10 +38468,8 @@
           <t>3492170681</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:16</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44088.80712962963</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39599,10 +38545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:14</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44088.80710648148</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39678,10 +38622,8 @@
           <t>3492169161</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:12</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44088.80708333333</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39745,10 +38687,8 @@
           <t>3492170474</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:07</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44088.80702546296</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -39824,10 +38764,8 @@
           <t>3492170462</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:06</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44088.80701388889</v>
       </c>
       <c r="I540" t="n">
         <v>2</v>
@@ -39899,10 +38837,8 @@
           <t>3492170348</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:22:00</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44088.80694444444</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39966,10 +38902,8 @@
           <t>3492164942</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:21:50</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44088.8068287037</v>
       </c>
       <c r="I542" t="n">
         <v>2</v>
@@ -40037,10 +38971,8 @@
           <t>3492164902</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:21:49</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44088.80681712963</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40117,10 +39049,8 @@
           <t>3492168157</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:21:25</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44088.80653935186</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40198,10 +39128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:21:06</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44088.80631944445</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40277,10 +39205,8 @@
           <t>3492167372</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:20:46</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44088.80608796296</v>
       </c>
       <c r="I546" t="n">
         <v>20</v>
@@ -40358,10 +39284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:20:43</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44088.80605324074</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40442,10 +39366,8 @@
           <t>3492143286</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:20:41</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44088.80603009259</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40513,10 +39435,8 @@
           <t>3492158688</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:20:38</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44088.80599537037</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40592,10 +39512,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:20:35</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44088.80596064815</v>
       </c>
       <c r="I550" t="n">
         <v>25</v>
@@ -40659,10 +39577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:20:03</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44088.80559027778</v>
       </c>
       <c r="I551" t="n">
         <v>38</v>
@@ -40730,10 +39646,8 @@
           <t>3492162537</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:50</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44088.80543981482</v>
       </c>
       <c r="I552" t="n">
         <v>60</v>
@@ -40805,10 +39719,8 @@
           <t>3492157632</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:46</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44088.80539351852</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40877,10 +39789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:41</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44088.80533564815</v>
       </c>
       <c r="I554" t="n">
         <v>484</v>
@@ -40956,10 +39866,8 @@
           <t>3492157517</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:41</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44088.80533564815</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41035,10 +39943,8 @@
           <t>3492162311</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:39</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44088.8053125</v>
       </c>
       <c r="I556" t="n">
         <v>7</v>
@@ -41106,10 +40012,8 @@
           <t>3492157395</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:35</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44088.8052662037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41177,10 +40081,8 @@
           <t>3492162137</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:30</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44088.80520833333</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41252,10 +40154,8 @@
           <t>3492156857</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:19:06</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44088.80493055555</v>
       </c>
       <c r="I559" t="n">
         <v>16</v>
@@ -41325,10 +40225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:18:52</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44088.80476851852</v>
       </c>
       <c r="I560" t="n">
         <v>40</v>
@@ -41396,10 +40294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:18:51</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44088.80475694445</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41467,10 +40363,8 @@
           <t>3492160746</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:18:14</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44088.80432870371</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41534,10 +40428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:58</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44088.80414351852</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41613,10 +40505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:57</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44088.80413194445</v>
       </c>
       <c r="I564" t="n">
         <v>8</v>
@@ -41688,10 +40578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:57</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44088.80413194445</v>
       </c>
       <c r="I565" t="n">
         <v>128</v>
@@ -41767,10 +40655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:50</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44088.80405092592</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41839,10 +40725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:44</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44088.80398148148</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41910,10 +40794,8 @@
           <t>3492155177</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:41</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44088.80394675926</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -41981,10 +40863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:34</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44088.80386574074</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -42052,10 +40932,8 @@
           <t>3492153379</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:24</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44088.80375</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42119,10 +40997,8 @@
           <t>3492149681</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:21</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44088.80371527778</v>
       </c>
       <c r="I571" t="n">
         <v>83</v>
@@ -42198,10 +41074,8 @@
           <t>3492149403</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:08</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44088.80356481481</v>
       </c>
       <c r="I572" t="n">
         <v>4</v>
@@ -42273,10 +41147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:17:03</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44088.80350694444</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42340,10 +41212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:55</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44088.80341435185</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42415,10 +41285,8 @@
           <t>3492143997</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:41</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44088.80325231481</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42478,10 +41346,8 @@
           <t>3492143929</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:38</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44088.80321759259</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42557,10 +41423,8 @@
           <t>3492148781</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:36</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44088.80319444444</v>
       </c>
       <c r="I577" t="n">
         <v>13</v>
@@ -42632,10 +41496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:31</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44088.80313657408</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42703,10 +41565,8 @@
           <t>3492152247</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:26</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44088.80307870371</v>
       </c>
       <c r="I579" t="n">
         <v>2</v>
@@ -42782,10 +41642,8 @@
           <t>3492148435</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:19</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44088.80299768518</v>
       </c>
       <c r="I580" t="n">
         <v>4</v>
@@ -42861,10 +41719,8 @@
           <t>3492143426</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:13</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44088.80292824074</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42936,10 +41792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:11</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44088.80290509259</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42999,10 +41853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:11</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44088.80290509259</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -43066,10 +41918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:08</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44088.80287037037</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43141,10 +41991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:06</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44088.80284722222</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43216,10 +42064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:05</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44088.80283564814</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43287,10 +42133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:05</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44088.80283564814</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43362,10 +42206,8 @@
           <t>3492151460</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:56</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44088.80273148148</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43437,10 +42279,8 @@
           <t>3492151460</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:47</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44088.80262731481</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43508,10 +42348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:47</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44088.80262731481</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43584,10 +42422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:37</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44088.80251157407</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43663,10 +42499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:29</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44088.80241898148</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43742,10 +42576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:24</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44088.80236111111</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43821,10 +42653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:24</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44088.80236111111</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43900,10 +42730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:23</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44088.80234953704</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43975,10 +42803,8 @@
           <t>3492150907</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:22</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44088.80233796296</v>
       </c>
       <c r="I596" t="n">
         <v>44</v>
@@ -44050,10 +42876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:21</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44088.80232638889</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44117,10 +42941,8 @@
           <t>3492146982</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:15:05</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44088.80214120371</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -44188,10 +43010,8 @@
           <t>3492141927</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:59</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44088.80207175926</v>
       </c>
       <c r="I599" t="n">
         <v>9</v>
@@ -44256,10 +43076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:57</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44088.80204861111</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44323,10 +43141,8 @@
           <t>3492150376</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:56</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44088.80203703704</v>
       </c>
       <c r="I601" t="n">
         <v>32</v>
@@ -44402,10 +43218,8 @@
           <t>3492139810</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:28</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44088.80171296297</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44473,10 +43287,8 @@
           <t>3492139556</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:15</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44088.8015625</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44548,10 +43360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:13</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44088.80153935185</v>
       </c>
       <c r="I604" t="n">
         <v>21</v>
@@ -44627,10 +43437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:11</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44088.8015162037</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -44698,10 +43506,8 @@
           <t>3492139432</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:08</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44088.80148148148</v>
       </c>
       <c r="I606" t="n">
         <v>9</v>
@@ -44773,10 +43579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:14:00</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44088.80138888889</v>
       </c>
       <c r="I607" t="n">
         <v>2</v>
@@ -44844,10 +43648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:58</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44088.80136574074</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44911,10 +43713,8 @@
           <t>3492139219</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:57</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44088.80135416667</v>
       </c>
       <c r="I609" t="n">
         <v>2</v>
@@ -44990,10 +43790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:50</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44088.80127314815</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45061,10 +43859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:50</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44088.80127314815</v>
       </c>
       <c r="I611" t="n">
         <v>265</v>
@@ -45136,10 +43932,8 @@
           <t>3492145155</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:36</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44088.80111111111</v>
       </c>
       <c r="I612" t="n">
         <v>29</v>
@@ -45211,10 +44005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:29</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44088.8010300926</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45290,10 +44082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:18</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44088.80090277778</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45357,10 +44147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:15</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44088.80086805556</v>
       </c>
       <c r="I615" t="n">
         <v>526</v>
@@ -45432,10 +44220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:13</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44088.8008449074</v>
       </c>
       <c r="I616" t="n">
         <v>80</v>
@@ -45511,10 +44297,8 @@
           <t>3492137567</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:13</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44088.8008449074</v>
       </c>
       <c r="I617" t="n">
         <v>2</v>
@@ -45582,10 +44366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:12</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44088.80083333333</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45661,10 +44443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:13:01</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44088.80070601852</v>
       </c>
       <c r="I619" t="n">
         <v>329</v>
@@ -45736,10 +44516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:54</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44088.800625</v>
       </c>
       <c r="I620" t="n">
         <v>2</v>
@@ -45811,10 +44589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:41</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44088.80047453703</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45882,10 +44658,8 @@
           <t>3492137567</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:39</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44088.80045138889</v>
       </c>
       <c r="I622" t="n">
         <v>7</v>
@@ -45949,10 +44723,8 @@
           <t>3492129149</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:36</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44088.80041666667</v>
       </c>
       <c r="I623" t="n">
         <v>6</v>
@@ -46024,10 +44796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:34</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44088.80039351852</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46091,10 +44861,8 @@
           <t>3492128765</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:17</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44088.80019675926</v>
       </c>
       <c r="I625" t="n">
         <v>4</v>
@@ -46166,10 +44934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:16</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44088.80018518519</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46245,10 +45011,8 @@
           <t>3492137085</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:15</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44088.80017361111</v>
       </c>
       <c r="I627" t="n">
         <v>100</v>
@@ -46316,10 +45080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:12</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44088.80013888889</v>
       </c>
       <c r="I628" t="n">
         <v>637</v>
@@ -46387,10 +45149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:52</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44088.79990740741</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46462,10 +45222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:47</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44088.79984953703</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46533,10 +45291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:46</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44088.79983796296</v>
       </c>
       <c r="I631" t="n">
         <v>12</v>
@@ -46608,10 +45364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:44</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44088.79981481482</v>
       </c>
       <c r="I632" t="n">
         <v>2</v>
@@ -46683,10 +45437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:41</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44088.7997800926</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
@@ -46762,10 +45514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:38</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44088.79974537037</v>
       </c>
       <c r="I634" t="n">
         <v>16</v>
@@ -46837,10 +45587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:24</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44088.79958333333</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46916,10 +45664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:22</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44088.79956018519</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -46987,10 +45733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:21</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44088.79954861111</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47066,10 +45810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:20</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44088.79953703703</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -47137,10 +45879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:20</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44088.79953703703</v>
       </c>
       <c r="I639" t="n">
         <v>265</v>
@@ -47212,10 +45952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:18</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44088.79951388889</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47283,10 +46021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:10</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44088.79942129629</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47350,10 +46086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:08</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44088.79939814815</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47419,10 +46153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:06</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44088.799375</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47498,10 +46230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:02</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44088.7993287037</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47565,10 +46295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:11:02</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44088.7993287037</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
@@ -47644,10 +46372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:59</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44088.79929398148</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47719,10 +46445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:57</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44088.79927083333</v>
       </c>
       <c r="I647" t="n">
         <v>1132</v>
@@ -47790,10 +46514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:51</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44088.79920138889</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -47857,10 +46579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:49</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44088.79917824074</v>
       </c>
       <c r="I649" t="n">
         <v>1</v>
@@ -47932,10 +46652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:49</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44088.79917824074</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48003,10 +46721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:40</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44088.79907407407</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
@@ -48070,10 +46786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:40</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44088.79907407407</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48141,10 +46855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:39</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44088.7990625</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -48208,10 +46920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:31</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44088.79896990741</v>
       </c>
       <c r="I654" t="n">
         <v>1</v>
@@ -48283,10 +46993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:10:21</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44088.79885416666</v>
       </c>
       <c r="I655" t="n">
         <v>16</v>
